--- a/Assets/Excels/SubSkill.xlsx
+++ b/Assets/Excels/SubSkill.xlsx
@@ -11,6 +11,42 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Type  
+1 动画  动画名称，速度，force，normalizedTime
+2 特效  特效id 时长</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36,11 +72,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,atk_1,0.1),(2,1,3,1)</t>
+    <t>skillActionList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillActionList</t>
+    <t>(1,atk_1,1),(2,1,3,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -48,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +98,19 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -406,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -442,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -469,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,5 +639,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Excels/SubSkill.xlsx
+++ b/Assets/Excels/SubSkill.xlsx
@@ -76,7 +76,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,atk_1,1),(2,1,3,1)</t>
+    <t>(1,atk_1,1),(2,1,3,1),(3,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/Excels/SubSkill.xlsx
+++ b/Assets/Excels/SubSkill.xlsx
@@ -76,7 +76,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,atk_1,1),(2,1,3,1),(3,1)</t>
+    <t>(1,atk_1,1),(2,1,3,1),(3,1,60),(3,1,-60),(3,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/Excels/SubSkill.xlsx
+++ b/Assets/Excels/SubSkill.xlsx
@@ -76,7 +76,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,atk_1,1),(2,1,3,1),(3,1,60),(3,1,-60),(3,1)</t>
+    <t>(1,atk_1,1),(2,1,3,1),(3,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/Excels/SubSkill.xlsx
+++ b/Assets/Excels/SubSkill.xlsx
@@ -76,7 +76,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,atk_1,1),(2,1,3,1),(3,1)</t>
+    <t>{1,atk_1,1},{2,1,3,1},{3,1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/Excels/SubSkill.xlsx
+++ b/Assets/Excels/SubSkill.xlsx
@@ -41,7 +41,9 @@
           <t xml:space="preserve">
 Type  
 1 动画  动画名称，速度，force，normalizedTime
-2 特效  特效id 时长</t>
+2 特效  特效id 时长
+3 子弹  子弹id，角度偏移，位置偏移
+4 伤害检测  伤害检测id</t>
         </r>
       </text>
     </comment>
@@ -76,7 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,atk_1,1},{2,1,3,1},{3,1}</t>
+    <t>{1,atk_1,1},{2,1,3,1},{3,1},{4,1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +461,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/Excels/SubSkill.xlsx
+++ b/Assets/Excels/SubSkill.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,29 @@
   </si>
   <si>
     <t>{1,atk_1,1},{2,1,3,1},{3,1},{4,1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>是否可以移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,172 +493,171 @@
     <col min="2" max="2" width="87.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excels/SubSkill.xlsx
+++ b/Assets/Excels/SubSkill.xlsx
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,atk_1,1},{2,1,3,1},{3,1},{4,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>canMove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,atk_1,1},{2,1,3,1},{3,1},{4,1},{5,1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -521,10 +521,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>

--- a/Assets/Excels/SubSkill.xlsx
+++ b/Assets/Excels/SubSkill.xlsx
@@ -101,7 +101,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,atk_1,1},{2,1,3,1},{3,1},{4,1},{5,1}</t>
+    <t>{1,atk_1,1},{2,1,3,1},{3,1},{4,1},{6,1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
